--- a/Project4/artest.xlsx
+++ b/Project4/artest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>rule_and</t>
   </si>
@@ -22,22 +22,296 @@
     <t>response</t>
   </si>
   <si>
-    <t>김치찌개</t>
-  </si>
-  <si>
-    <t>조리 레시피 만들 어떻게 요리 방법</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김치찌개 요리법
-필요한 재료 : 김치400g, 대파 2/3대, 청양고추 2개, 두부 1/2모, 찌개용 돼지고기 200g, 국간장 1스푼, 고춧가루 1스푼 반, 간마늘 1스푼, 설탕 1~2스푼, 새우젓 2스푼
-1. 찌개용 돼지고기 200g에 물 600ml를 붓고 끓입니다. (새우젓 2스푼을 넣으면 더 맛있습니다.)
-2. 팔팔 끓어오르면 중불로 줄이고 20~30분 푹 끓여주세요.
-3. 김치, 두부, 대파, 청양고추를 먹기 좋은 사이즈로 잘라주세요. 
-4. 고기 육수 물이 줄어들면 물을 보충하고 김치를 넣어주세요.
-5. 국간장 1스푼, 고춧가루 1스푼 반, 간마늘 1스푼, 설탕 1~2스푼도 넣어주세요.
-6. 20~30분 정도 중약불에 끓여주세요.
-7. 마지막으로 청양고추, 대파, 두부를 넣으면 완성!!!
-</t>
+    <t>가자미전</t>
+  </si>
+  <si>
+    <t>요리 조리 레시피 어떻게 만들 만드는 방법 법 순서</t>
+  </si>
+  <si>
+    <t>가자미전 요리법
+필요한 재료 : 반건조 가자미 2마리, 달걀 1개, 밀가루 1/4컵, 소금 약간, 식용류 적당량, 소금 약간, 청주 1/2큰술, 후춧가루 약간
+1. 반건조 가자미는 다듬어 씻은 후 적당한 크기로 토막을 낸다.
+2. 1을 분량의 가자미 양념을 섞어 10분 정도 재운다.
+3. 달걀은 소금을 약간 넣어 풀어둔다.
+4. 2의 가자미에 밀가루를 앞뒤로 살짝 묻힌 후 3의 달걀옷을 입혀 프라이팬에 식용유를 두르고 앞 뒤로 노릇하게 지진다.</t>
+  </si>
+  <si>
+    <t>가지쇠고기전</t>
+  </si>
+  <si>
+    <t>가지쇠고기전 요리법
+필요한 재료 : 가지 2개, 쇠고기 300g, 소금 약간, 녹말가루 3큰술, 밀가루 5큰술, 달걀 2개, 간장 1작은술, 참기름 1작은술, 마늘 1/2작은술, 소금 약간, 후춧가루 약간
+1. 가지는 꼭지를 떼어내고 동그랗게 0.3cm 두께로 썬다.
+2. 소금물에 1의 가지를 담가 살짝 숨이 죽도록 한 후 물에서 건져 물기를 닦고 녹말가루를 한쪽면만 뿌린다.
+3. 쇠고기는 핏물을 뺀 후 고기 양념을 해서 조물조물 치댄다.
+4. 가지에 다진 쇠고기를 조금씩 얹고 다듬은 후 다른 가지로 덮어 손으로 눌러 밀착시킨다.
+5. 4에 밀가루를 고리게 입히고 날가루를 턴 후 달걀물을 흠씬 적셔 팬에 기름을 두르고 노릇하게 부쳐낸다.</t>
+  </si>
+  <si>
+    <t>가지전</t>
+  </si>
+  <si>
+    <t>가지전 요리법 
+필요한 재료 : 가지 120g, 달걀 50g, 밀가루 25g, 소금 1/2작은술, 식용유 3큰술
+1. 가지는 껍질을 벗겨 1cm두께로 어슷하게 썰어 찬물에 담가 두었다가 물기를 뺀다.
+2. 가지는 소금을 살짝 뿌려 간을 한다.
+3. 가지는 밀가루를 묻혀 달걀물에 담궈 준비한다.
+4. 팬에 노릇하게 지진다.</t>
+  </si>
+  <si>
+    <t>감자녹찻잎전</t>
+  </si>
+  <si>
+    <t>감자녹찻잎전 요리법
+필요한 재료 : 감자 3개, 녹차 우리고 남은 잎 2큰술, 옥수수 알 3큰술, 소금 조금, 후춧가루 조금, 식용유 
+1. 감자는 껍질을 깍아 1개는 강판에 곱게 갈고, 2개는 곱게 채 썰어 모두 섞는다.
+2. 녹찻잎은 칼로 잘게 다지고, 옥수수 알은 1에 넣어 섞은 뒤 소금과 후춧가루로 간을 한다.
+3. 팬에 기름을 두르고 2를 숟가락으로 떠서 지름 4~5cm 크기로 동기랗게 올린 다음 앞뒤로 노릇노릇하게 지진다.</t>
+  </si>
+  <si>
+    <t>감자시금치전</t>
+  </si>
+  <si>
+    <t>감자시금치전 요리법
+필요한 재료 : 감자 3개, 시금치 2포기, 소금 약간, 식용유
+1. 감자는 껍질을 벗겨서 고운 강판에 갈아 물기를 꼭 짠다.
+2. 간 감자를 면포에 싸 물기를 짜고, 짜낸 물은 거친 그릇에 담아 전분을 가라앉힌다.
+3. 2의 감자 윗물은 따라내고 가라앉은 전분만 모은다.
+4. 손질한 시금치는 끓는 소금물에 살짝 데쳐 물기를 꼭 짠 후 1cm 길이로 자른다. 볼에 간 감자와 전분, 데친 시금치를 넣고 소금간을 한 후 동그랗게 빚는다.
+5. 달군 팬에 식용유를 넉넉하게 둘러 노릇하게 굽는다.</t>
+  </si>
+  <si>
+    <t>감자양배추전</t>
+  </si>
+  <si>
+    <t>감자양배추전 요리법
+필요한 재료 : 감자 2개, 양배추 1/8통, 양파 1/4개, 당근 1/3개, 밀가루 6큰술, 소금 약간 식용유, 간장 1큰술, 물 1큰술, 식초 1작은술, 설탕 1작은술
+1. 감자는 껍질을 벗기고 반으로 썰어 1개는 4cm 길이로 얇게 채썰고 나머지는 강판에 갈아 준비한다.
+2. 얇게 썬 감자는 찬물에 담가 전분기를 뺀 뒤 체에 밭쳐 물기를 뺸다.
+3. 양배추는 한 잎씩 떼어 씻은 뒤, 물기를 털어내고 4cm 길이로 얇게 채 썰어 둔다.
+4. 양파와 당근도 껍질을 벗긴 두 4cm 길이로 얇게 채 썬다.
+5. 강판에 간 감자에 밀가루, 소금을 넣고 고루 섞은 뒤, 채 썬 감자, 양파, 양배추, 당근을 넣고 섞습니다.
+6. 달군 팬에 기름을 두르고 반죽을 1큰술씩 올려 앞뒤로 노릇하게 굽고 초간장을 만들어 함께 곁들입니다.</t>
+  </si>
+  <si>
+    <t>감자전</t>
+  </si>
+  <si>
+    <t>감자전 요리법
+필요한 재료 : 감자 3개, 찹쌀가루 3큰술, 부침가루 1/4컵, 풋고추 2개, 홍고추 2개, 쪽파 5대, 소금 약간
+1. 감자는 껍질을 벗기고 강판에 곱게 갈아 앙금을 가라앉힌다.
+2. 풋고추와 홍고추는 반을 갈라 씨가 있는 채로 송송 잘게 썬다. 쪽파는 2cm 크기로 썬다.
+3. 가라앉힌 감자 앙금의 윗물을 따라내고 남은 앙금에 찹쌀가루와 부침가루를 넣고 버무려 걸쭉한 농도로 반죽을 한 후 소금으로 간을 한다.
+4. 3에 고추채와 쪽파를 넣고 한대 버무려 반죽한다.
+5. 팬에 기름을 넉넉하게 두른 후 감자 반죽을 한 숟가락씩 떠서 놓고 앞뒤로 전을 부친다.</t>
+  </si>
+  <si>
+    <t>견과류도라지전</t>
+  </si>
+  <si>
+    <t>견과류도라지전 요리법
+필요한 재료 : 도라지 50g, 땅콩 6g, 호두 6g, 검은깨 조금, 달걀 한개, 밀가루 50g, 청피망 조금, 홍피망 조금. 소금 약간, 올리브유 약간, 식초 갹간, 간장 약간, 올리고당 약간
+1. 도라지는 벗겨서 굵은 소금을 넣고 주물러 헹군 다음 물에 담가 쓴맛을 제거한다.
+2. 방망이로 밀어 부드럽게 펴서 5cm 길이로 자른다.
+3. 땅콩과 호두는 가루를 내고 피망은 다진다.
+4. 밀가루에 달걀, 소금, 물을 넣어 반죽하고 검은깨, 피망, 땅콩, 호두, 도라지를 넣어 섞는다.
+5. 팬에 기름을 두르고 노릇하게 굽니다.</t>
+  </si>
+  <si>
+    <t>고추전</t>
+  </si>
+  <si>
+    <t>고추전 요리법
+필요한 재료 : 고추 150g, 쇠고기 50g, 밀가루 55g, 달걀 60g, 간장 조금, 마늘 조금, 대파 조금, 참기름 조금, 깨 조금, 식용유, 후추
+1. 풋고추는 길이로 칼집을 넣어 씨를 빼고, 큰 것은 반으로 가른 다음 씨를 뺀다.
+2. 쇠고기는 곱게 다져서 양념한 다음 고추 안에 조금씩 채워 넣는다.
+3. 고기를 넣은 부분에만 밀가루와 푼 달걀을 묻힌다.
+4. 팬에 식용유를 두르고 한 면을 파랗게, 한 면은 노랗게 지진다.</t>
+  </si>
+  <si>
+    <t>굴전</t>
+  </si>
+  <si>
+    <t>굴전 요리법
+필요한 재료 : 굴 200g, 양파 1/2개, 홍고추 1개, 풋고추 1개, 밀가루 170g, 물 150g, 달걀 1개, 소금 1작은술, 후춧가루 약간, 생선알 약간, 식용유
+1. 굴은 연한 소금물에 살짝 씻어 불순물을 제거하고 물기를 없앤다.
+2. 양파, 고추는 3cm 길이로 채를 썬다.
+3. 큰 그릇에 굴, 채썬 양파, 고추, 밀가루, 달걀, 물, 소금, 후춧가루를 넣어 잘 섞는다.
+4. 팬에 식용유를 두르고 한 숟가락씩 떠 지진다.
+5. 그릇에 담은 후 생선알을 올리고 마무리한다.</t>
+  </si>
+  <si>
+    <t>김치해산물산적</t>
+  </si>
+  <si>
+    <t>김치해산물산적 요리법
+필요한 재료 : 김치 줄기 100g, 새우 8마리, 갑오징어 2마리, 불린 해삼 1마리, 가는 파 50g, 느타리버섯 50g, 부침가루 1/2컵, 물 1/2컵 밀가루 약간, 식용유, 간장 2큰술, 식초 1큰술, 물 1큰술
+1. 김치 줄기 부분은 가로 1cm 길이 6cm로 썬다.
+2. 새우는 머리를 떼어내고 등 쪽에 꼬치를 찔러 내장을 뺀 후 꼬리를 남기고 껍질을 벗긴다.
+3. 새우 안쪽에 칼집을 깊숙이 넣어 지질 때 새우가 휘는 것을 방지한다.
+4. 갑오징어는 안쪽에 가로, 세로로 잔 칼집을 넣고 1cm 두께로 썬다. 
+5. 불린 해삼은 6cm 길이로 썰어 갑오징어 크기와 맞추어 썬다.
+6. 가는 파는 6cm 길이로 썰고, 느타리 버섯은 끓는 물에 살짝 데쳐 물기를 뺀다.
+7. 부침 가루에 물을 넣고 묽게 갠다.
+8. 꼬치에 김치, 느타리버섯, 해삼, 가는 파, 새우, 갑오징어, 김치를 꽂는다.
+9. 밀가루를 앞뒤로 가볍게 묻히고 7을 입힌다.
+10. 프라이팬에 식용유를 두르고 노릇노릇하게 지진다,
+11. 초간장을 곁들인다.</t>
+  </si>
+  <si>
+    <t>김치전</t>
+  </si>
+  <si>
+    <t>김치전 요리법
+필요한 재료 : 배추 김치 1/8포기, 실파 5대, 홍고추 1개, 오징어 1/4마리, 홍합 100g, 밀가루 1컵, 계란 2개, 물 1컵, 소금 약간, 식용유
+1. 배추 김치는 속을 털어내고 적당한 크기로 썹니다.
+2. 실파는 뿌리를 손질한 후 씻어 한 입 크기로 자르고 홍 고추는 어슷하게 썹니다.
+3. 오징어는 채 썰고 홍합은 손질하여 살만 준비합니다.
+4. 볼에 밀가루, 계란을 넣고 물을 조금씩 부으면서 농도를 조절하고 소금을 넣어 간합니다.
+5. 밀가루 물에 배추 김치, 실파, 홍고추, 오징어, 홍합을 넣어 섞습니다.
+6. 달궈진 팬에 기름을 두르고 반죽을 한 국자 떠서 노릇하게 구워냅니다.</t>
+  </si>
+  <si>
+    <t>깻잎전</t>
+  </si>
+  <si>
+    <t>깻잎전 요리법
+필요한 재료 : 깻잎 10g, 두부 100g, 쇠고기 50g, 대파 6g, 마늘 7g, 소금 약간. 후춧가루 약간, 깨소금 약간, 참기름 15ml, 밀가루 20g, 달걀 25g, 식용유 
+1. 두부는 면보에 꼭 짜서 도마에 올리고 칼등으로 여러 번 으꺠어 준비한다.
+2. 볼에 으깬 두부와, 다진 쇠고기, 다진 파, 다진 마늘, 소근 후춧가루, 꺠소금, 참기름을 넣고 한참 치대어 양념소를 준비한다.
+3. 꺳잎의 한쪽면에 밀가루를 가볍게 살짝 발라 툭툭 털어내고 양념소를 넣어 납작하게 넣고 반으로 접어 준비한다.
+4. 양념소를 넣은 깻잎에 밀가루를 묻히고 풀어 놓은 달걀에 담갔다가 식용유를 두른 팬의 약불에서 앞뒤로 노릇하게 지져서 초간장과 함께 먹는다.</t>
+  </si>
+  <si>
+    <t>꼬치전</t>
+  </si>
+  <si>
+    <t xml:space="preserve">꼬치전 요리법
+필요한 재료 : 소기기 200g, 새송이버섯 100g, 햄 100g, 게맛살 150g, 쪽파 70g, 달걀 120g, 밀가루 30g, 꼬치 10개, 간장 30ml, 설탕 10g, 청주 15ml, 마늘 6g, 참기름 15ml, 후추 약간
+1. 쇠고기는 두께 1cm 길이 7cm로 잘라 고기양념에 20분 정도 재운 후 팬에서 구워준다.
+2. 게맛살, 햄, 새송이 버섯, 쪽파는 두께 1cm 길이 6cm 로 잘라 준비해둔다.
+3. 새송이버섯과 쪽파는 참기름과 소금을 약간 뿌려 밑간을 해준다.
+4. 꼬치에 게맛살, 햄, 새송이버섯, 쇠고기, 쪽파, 게맛살 순으로 끼워 뒷면에만 밀가루와 달걀물을 입히고 약한 불에서 곱체 부쳐낸다. </t>
+  </si>
+  <si>
+    <t>냉이전</t>
+  </si>
+  <si>
+    <t>냉이전 요리법
+필요한 재료 : 냉이 100g, 새송이버섯 2개, 생표고버섯 2개, 양파 1개, 청고추 1개, 홍고추 1개, 밀가루 3큰술, 식용유, 밀가루 1컵, 물 1컵, 달걀 1개, 소금 2작은술, 후춧가루 약간
+1. 냉이는 여러 번 헹궈 체에 밭쳐 물기를 제거 한 후 밀가루에 버무린다.
+2. 새송이버섯, 표고버섯, 양파, 청,홍고추는 0.5cm 정도 네모지게 썬다.
+3. 분량의 재료를 섞어 반죽옷을 만든 뒤 2의 버섯과 채소를 넣고 섞는다.
+4. 달군 팬에 기름을 두르고 3의 반죽을 한 숟가락씩 떠 넣어 한쪽 면이 익기 전에 밀가루에 버무린 냉이를 올린다.
+5. 한쪽면이 익으면 뒺집어서 노릇하게 익힌다.</t>
+  </si>
+  <si>
+    <t>녹두채소전</t>
+  </si>
+  <si>
+    <t>녹두채소전 요리법
+필요한 재료 : 녹두 50g, 물 3/2컵, 애호박 15g, 당근 15g, 쌀가루 30g, 물 8/3큰술, 포도씨오일
+1. 녹두는 반나절 이상 불린다. 불린 녹두는 물에 담가 손으로 주물러가며 껍질을 벗겨서 껍질이 뜨는 물을 버린다. 이과정을 반복해서 완전히 껍질을 벗긴다.
+2. 냄비에 녹두와 물 3/2컵을 넣고 약한 불에서 저어가며 30분 정도 끓인다. 중간에 생기는 거품은 걷어낸다.
+3. 녹두가 한 김 식으면 믹서에 삶은 녹두를 넣고 곱게 간다.
+4. 애호박과 당근을 잘게 다진다.
+5. 볼에 녹두 간것, 애호박, 당근, 쌀가루, 물 8/3큰술을 넣고 섞는다.
+6. 달군 팬에 오일을 약간 두르고 반죽을 5cm 크기로 떠 넣어 앞뒤로 노릇하게 지진다.</t>
+  </si>
+  <si>
+    <t>녹두전</t>
+  </si>
+  <si>
+    <t>녹두전 요리법
+필요한 재료 : 녹두빈대떡가루 19g, 배추김치 16.4g, 숙주나물 15.8g, 돼지고기 14.3g, 녹두 6.3g, 콩기름 5.5g, 찹쌀 5.3g, 홍고추 2.8g, 고사리 1.5g, 파 1.5g, 소금 0.8g, 풋고추 0.6g, 후추 0.1g
+1. 녹두와 찹쌀은 물에 불려간다.
+2. 배추김치는 물에 씻어 물기를 짜고 데친 고사리는 적당한 크기로 자른다.
+3. 볼에 녹두빈대떡가루, 갈은 녹두와 찹쌀, 배추김치, 고사리, 숙주, 붉은고추, 돼지고기, 파를 넣고 반죽한 후 소금과 후추로 간한다.
+4. 후라이팬에 약간 많은 식용유를 두르고 반죽을 부어 앞뒤로 노릇하게 구워낸다.</t>
+  </si>
+  <si>
+    <t>달걀미역전</t>
+  </si>
+  <si>
+    <t>달걀미역전 요리법
+필요한 재료 : 달걀 3개, 불린 미역 1/2컵, 새송이버섯 1/2개, 불린 목이버섯 5장, 마늘 3쪽, 소금 0.2 숟가락, 식용유
+1. 불린 미역은 굵게 다지고, 각종 버섯은 잘게 다진다.
+2. 믹서에 달걀, 마늘, 소금을 한데 넣어 곱게 간다.
+3. 볼에 2의 달걀물을 붓고 다진 미역과 버섯을 섞는다.
+4. 달군 팬에 기름을 두르고 3을 부어 노릇하게 익힌다.</t>
+  </si>
+  <si>
+    <t>달래전</t>
+  </si>
+  <si>
+    <t>달래전 요리법
+필요한 재료 : 달래 80g, 조갯살 100g, 붉은 고추 1/2개, 부침가루 1컵, 물 1컵, 식용유
+1. 달래는 뿌리를 다듬어 씻어 2cm 길이로 썬다.
+2. 조갯살은 소금물에 씻어 건져 굵게 다진다.
+3. 붉은 고추는 다진다.
+4. 부침가루에 물을 넣어 반죽한 후 달래와 조갯살, 붉은 고추를 넣어 섞는다.
+5. 프라이팬에 식용유를 두르고 반죽을 한 수저씩 떠서 노릇노릇하게 지진다.</t>
+  </si>
+  <si>
+    <t>닭근위전</t>
+  </si>
+  <si>
+    <t>닭근위전 요리법
+필요한 재료 : 닭근위 25개, 미나리 8줄기, 쪽파 3대, 마늘 5쪽, 홍고추 1개, 청양고추 1개, 녹말가루 1큰술, 밀가루 1/2컵, 달걀 2개, 식용유, 마늘즙 1큰술, 참기름 1큰술, 양파즙 2큰술, 생강가루 1/4작은술, 소금, 후춧가루
+1. 닭근위는 꺠끗하게 손질해서 밀가루 2큰술을 넣어 바락바락 주물어 씻어 한입 크기로 얄팍하게 포를 뜬다.
+2. 1의 닭근위에 마늘즙과 양파즙, 생강가루, 참기름, 소금, 후춧가루를 넣어 버무려 30분 이상 밑간한다.
+3. 미나리와 쪽파는 씼어 1cm 길이로 썰고 마늘과 홍고추와 청양고추는 굵게 다진다.
+4. 볼에 닭근위와 3의 채소를 넣고 버무려 소금으로 간을 한다.
+5. 밀가루와 달걀물에 4의 닭근위 채소를 한 숟가락씩 듬뿍 옷을 입혀 팬에 노릇하게 지진다.</t>
+  </si>
+  <si>
+    <t>당근전</t>
+  </si>
+  <si>
+    <t>당근전 요리법
+필요한 재료 : 당근 2개, 다진 쇠고기 150g, 양파 1/2개, 당근 40g, 풋고추 1개, 식용유 2큰술, 다진 파 1큰술, 다진마늘 1/2큰술, 간장 1큰술, 소금 1작은술, 참기름 1/2 큰술, 깨소금 1/2 큰술, 후춧가루 약간
+1. 다진파, 다진마늘, 간장, 소금, 참기름, 깨소금, 후춧가루를 섞어 쇠고기 양념을 만든다.
+2. 당근은 껍질을 벗겨 0.5cm 두께의 원형으로 썬 후 가운데에 모양틀로 구멍을 낸다.
+3. 쇠고기는 곱게 다진다.
+4. 곱게 다진 쇠고기에 쇠고기 양념을 혼합하여 잘 반죽한다.
+5. 구멍 낸 당근에 밀가루를 묻히고 3을 채우고 프라이팬에 노릇노릇하게 지진다.</t>
+  </si>
+  <si>
+    <t>대추화전</t>
+  </si>
+  <si>
+    <t>대추화전 요리법
+필요한 재료 : 찹쌀가루 2컵, 홍초 2큰술, 물 8큰술, 대추 8개, 소금 약간, 식용유, 홍초 2컵, 설탕 2작은술
+1. 홍초와 물을 섞어 뜨겁게 데워 소금을 약간 넣고 찹쌀가루에 조금씩 넣어가며 한 덩어리로 뭉칩니다.
+2. 대추는 돌려 깎아 씨를 뺴고 돌돌 말아 얇게 썹니다.
+3. 반죽을 5cm 정도로 둥글게 빚어 팬에 기름을 두른 뒤 굽습니다.
+4. 한 쪽이 익으면 뒤집어 대추 고명, 쑥갓 잎으로 모양을 냅니다.
+5. 냄비에 홍초, 설탕을 넣어 약 불에서 끓여 시럽을 만듭니다.
+6. 접시에 대추화전을 담고 홍초 시럽을 뿌려냅니다.</t>
+  </si>
+  <si>
+    <t>동래파전</t>
+  </si>
+  <si>
+    <t>동래파전 요리법
+필요한 재료 : 쪽파 240g, 새우살 90g, 쇠고기 70g, 대합 70g, 홍합 70g, 조갯살 25g, 굴 25g, 미나리 60g, 멥쌀가루 150g, 밀가루 50g, 찹쌀가루 50g, 달걀 65g, 소금 2g, 고추장 60g, 고춧가루 12g, 간장 8g, 설탕 20g, 마늘 8g, 대파 4g, 참기름 6g, 식초 50g, 식용유 12g, 멸치국물 125ml, 깨 조금
+1. 쪽파는 15cm길이로 썰어 뿌리 쪽은 칼등으로 두드리고, 미나리는 4~5cm 길이로 썬다.
+2. 멸치국물에 달걀을 풀고 고춧가루, 소금을 넣은 후 쌀가루, 밀가루를 섞어 반죽을 만든다.
+3. 쇠고기는 채썰어 양념을 넣고 고루 무친다.
+4. 새우살, 홍합, 대합, 굴, 조갯살을 소금물에 씻어 반은 다져 2의 반죽에 놓고 고루 섞는다.
+5. 달군 팬에 식용유를 두르고 4를 한 국자씩 떠 놓고 둥글게 편 후 쪽파를 올리고 그 위에 미나리, 채 썬 쇠고기, 나머지 해산물을 얹고 4를 조금 떠서 위에 바르듯이 얇게 덮는다.
+6. 밑부분이 다 익으면 불을 약하게 줄이고 뒤집어서 지진다.</t>
+  </si>
+  <si>
+    <t>동태전</t>
+  </si>
+  <si>
+    <t>동태전 요리법
+필요한 재료 : 동태포 200g, 달걀 60g, 밀가루 20g, 소금 2g, 마늘 8g, 식용유 20g
+1. 동태포를 적당한 크기로 썰은 다음 소금과 후추로 밑간을 해둔다.
+2. 달걀을 풀어 소금과 다진 마늘을 넣고 고루 섞는다.
+3. 동태살에 밀가루를 얇게 묻히고, 풀어 놓은 달걀에 담갔다 꺼낸다.
+4. 기름 두른 팬에 양면을 노른하게 지진다.</t>
   </si>
 </sst>
 </file>
@@ -56,12 +330,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,12 +350,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -318,6 +610,259 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
